--- a/result/results_summary.xlsx
+++ b/result/results_summary.xlsx
@@ -805,7 +805,7 @@
         <v>2.73231571804086</v>
       </c>
       <c r="D3" t="n">
-        <v>1.99952124311663</v>
+        <v>1.999521243116628</v>
       </c>
       <c r="E3" t="n">
         <v>1.515420601443964</v>
@@ -814,7 +814,7 @@
         <v>33.35692213337961</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4413359479962503</v>
+        <v>0.44133594799625</v>
       </c>
       <c r="H3" t="n">
         <v>0.9744043613331007</v>

--- a/result/results_summary.xlsx
+++ b/result/results_summary.xlsx
@@ -805,16 +805,16 @@
         <v>2.73231571804086</v>
       </c>
       <c r="D3" t="n">
-        <v>1.999521243116628</v>
+        <v>1.999521243116629</v>
       </c>
       <c r="E3" t="n">
-        <v>1.515420601443964</v>
+        <v>1.515420601443935</v>
       </c>
       <c r="F3" t="n">
-        <v>33.35692213337961</v>
+        <v>33.35692213337967</v>
       </c>
       <c r="G3" t="n">
-        <v>0.44133594799625</v>
+        <v>0.4413359479962503</v>
       </c>
       <c r="H3" t="n">
         <v>0.9744043613331007</v>
@@ -832,25 +832,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9448676055721416</v>
+        <v>0.9405369553150424</v>
       </c>
       <c r="C4" t="n">
-        <v>4.01001821305985</v>
+        <v>4.164534739272907</v>
       </c>
       <c r="D4" t="n">
-        <v>3.042820778567519</v>
+        <v>3.198342439147541</v>
       </c>
       <c r="E4" t="n">
-        <v>2.501074943558933</v>
+        <v>2.704882202148411</v>
       </c>
       <c r="F4" t="n">
-        <v>45.02192850638573</v>
+        <v>44.92695800781252</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6701673661903285</v>
+        <v>0.7050751589824539</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9449870643191655</v>
+        <v>0.9405410675108798</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
